--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400"/>
+    <workbookView windowWidth="20148" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2957,6 +2957,62 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$8:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3054,6 +3110,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3346,8 +3403,8 @@
   <sheetPr/>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15" customHeight="1"/>

--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20148" windowHeight="8400"/>
+    <workbookView windowWidth="20148" windowHeight="7955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
-    <t xml:space="preserve">CALCULATION OF VALIDATION OF Imidocarb Dipropionate in Imidofarm  </t>
+    <t xml:space="preserve">CALCULATION OF VALIDATION OF  </t>
   </si>
   <si>
     <t xml:space="preserve">Degredation </t>
@@ -3403,8 +3403,8 @@
   <sheetPr/>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15" customHeight="1"/>

--- a/template3.xlsx
+++ b/template3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20148" windowHeight="7955"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3403,8 +3403,8 @@
   <sheetPr/>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15" customHeight="1"/>
